--- a/Tests/baseline_short_sma_5_25_T.xlsx
+++ b/Tests/baseline_short_sma_5_25_T.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Windows\Documents\bt_plat\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826EC397-10D9-47AD-827B-37C04F7B95A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC99F653-2FD4-47F5-B555-66A6F7A68F56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="20">
   <si>
     <t>Symbol</t>
   </si>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q254"/>
+  <dimension ref="A1:R254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L1048576"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +423,7 @@
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +475,11 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -528,8 +531,12 @@
       <c r="Q2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <f>ROUND(F2,2)</f>
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -581,8 +588,12 @@
       <c r="Q3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="0">ROUND(F3,2)</f>
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -634,8 +645,12 @@
       <c r="Q4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -687,8 +702,12 @@
       <c r="Q5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -740,8 +759,12 @@
       <c r="Q6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -793,8 +816,12 @@
       <c r="Q7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -846,8 +873,12 @@
       <c r="Q8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -899,8 +930,12 @@
       <c r="Q9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -952,8 +987,12 @@
       <c r="Q10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1005,8 +1044,12 @@
       <c r="Q11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1058,8 +1101,12 @@
       <c r="Q12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1111,8 +1158,12 @@
       <c r="Q13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1164,8 +1215,12 @@
       <c r="Q14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1217,8 +1272,12 @@
       <c r="Q15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1270,8 +1329,12 @@
       <c r="Q16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1323,8 +1386,12 @@
       <c r="Q17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1376,8 +1443,12 @@
       <c r="Q18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1429,8 +1500,12 @@
       <c r="Q19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1482,8 +1557,12 @@
       <c r="Q20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1535,8 +1614,12 @@
       <c r="Q21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1588,8 +1671,12 @@
       <c r="Q22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>8.9600000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1641,8 +1728,12 @@
       <c r="Q23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1694,8 +1785,12 @@
       <c r="Q24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>9.64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1747,8 +1842,12 @@
       <c r="Q25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1800,8 +1899,12 @@
       <c r="Q26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1853,8 +1956,12 @@
       <c r="Q27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1906,8 +2013,12 @@
       <c r="Q28" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1959,8 +2070,12 @@
       <c r="Q29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2012,8 +2127,12 @@
       <c r="Q30" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2065,8 +2184,12 @@
       <c r="Q31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>9.4700000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2118,8 +2241,12 @@
       <c r="Q32" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2171,8 +2298,12 @@
       <c r="Q33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2224,8 +2355,12 @@
       <c r="Q34" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <f t="shared" si="0"/>
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2277,8 +2412,12 @@
       <c r="Q35" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <f t="shared" si="0"/>
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2330,8 +2469,12 @@
       <c r="Q36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <f t="shared" si="0"/>
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2383,8 +2526,12 @@
       <c r="Q37" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <f t="shared" si="0"/>
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2436,8 +2583,12 @@
       <c r="Q38" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2489,8 +2640,12 @@
       <c r="Q39" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <f t="shared" si="0"/>
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2542,8 +2697,12 @@
       <c r="Q40" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <f t="shared" si="0"/>
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2595,8 +2754,12 @@
       <c r="Q41" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <f t="shared" si="0"/>
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2648,8 +2811,12 @@
       <c r="Q42" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <f t="shared" si="0"/>
+        <v>14.13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2701,8 +2868,12 @@
       <c r="Q43" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <f t="shared" si="0"/>
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2754,8 +2925,12 @@
       <c r="Q44" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <f t="shared" si="0"/>
+        <v>14.13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2807,8 +2982,12 @@
       <c r="Q45" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <f t="shared" si="0"/>
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -2860,8 +3039,12 @@
       <c r="Q46" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <f t="shared" si="0"/>
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -2913,8 +3096,12 @@
       <c r="Q47" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2966,8 +3153,12 @@
       <c r="Q48" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <f t="shared" si="0"/>
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3019,8 +3210,12 @@
       <c r="Q49" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <f t="shared" si="0"/>
+        <v>13.97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3072,8 +3267,12 @@
       <c r="Q50" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <f t="shared" si="0"/>
+        <v>13.78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -3125,8 +3324,12 @@
       <c r="Q51" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <f t="shared" si="0"/>
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -3178,8 +3381,12 @@
       <c r="Q52" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <f t="shared" si="0"/>
+        <v>13.59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -3231,8 +3438,12 @@
       <c r="Q53" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <f t="shared" si="0"/>
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -3284,8 +3495,12 @@
       <c r="Q54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <f t="shared" si="0"/>
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -3337,8 +3552,12 @@
       <c r="Q55" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <f t="shared" si="0"/>
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -3390,8 +3609,12 @@
       <c r="Q56" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <f t="shared" si="0"/>
+        <v>14.13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3443,8 +3666,12 @@
       <c r="Q57" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <f t="shared" si="0"/>
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -3496,8 +3723,12 @@
       <c r="Q58" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <f t="shared" si="0"/>
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -3549,8 +3780,12 @@
       <c r="Q59" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59">
+        <f t="shared" si="0"/>
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -3602,8 +3837,12 @@
       <c r="Q60" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <f t="shared" si="0"/>
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -3655,8 +3894,12 @@
       <c r="Q61" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <f t="shared" si="0"/>
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -3708,8 +3951,12 @@
       <c r="Q62" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <f t="shared" si="0"/>
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -3761,8 +4008,12 @@
       <c r="Q63" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <f t="shared" si="0"/>
+        <v>17.13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -3814,8 +4065,12 @@
       <c r="Q64" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <f t="shared" si="0"/>
+        <v>17.09</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -3867,8 +4122,12 @@
       <c r="Q65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <f t="shared" si="0"/>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -3920,8 +4179,12 @@
       <c r="Q66" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66">
+        <f t="shared" si="0"/>
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -3973,8 +4236,12 @@
       <c r="Q67" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67">
+        <f t="shared" ref="R67:R130" si="1">ROUND(F67,2)</f>
+        <v>18.940000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -4026,8 +4293,12 @@
       <c r="Q68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R68">
+        <f t="shared" si="1"/>
+        <v>19.309999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -4079,8 +4350,12 @@
       <c r="Q69" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R69">
+        <f t="shared" si="1"/>
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -4132,8 +4407,12 @@
       <c r="Q70" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <f t="shared" si="1"/>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -4185,8 +4464,12 @@
       <c r="Q71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R71">
+        <f t="shared" si="1"/>
+        <v>22.13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -4238,8 +4521,12 @@
       <c r="Q72" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R72">
+        <f t="shared" si="1"/>
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -4291,8 +4578,12 @@
       <c r="Q73" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R73">
+        <f t="shared" si="1"/>
+        <v>20.94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -4344,8 +4635,12 @@
       <c r="Q74" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R74">
+        <f t="shared" si="1"/>
+        <v>19.88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -4397,8 +4692,12 @@
       <c r="Q75" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R75">
+        <f t="shared" si="1"/>
+        <v>20.69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -4450,8 +4749,12 @@
       <c r="Q76" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R76">
+        <f t="shared" si="1"/>
+        <v>20.69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -4503,8 +4806,12 @@
       <c r="Q77" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R77">
+        <f t="shared" si="1"/>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -4556,8 +4863,12 @@
       <c r="Q78" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R78">
+        <f t="shared" si="1"/>
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -4609,8 +4920,12 @@
       <c r="Q79" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R79">
+        <f t="shared" si="1"/>
+        <v>20.81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -4662,8 +4977,12 @@
       <c r="Q80" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R80">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -4715,8 +5034,12 @@
       <c r="Q81" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R81">
+        <f t="shared" si="1"/>
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -4768,8 +5091,12 @@
       <c r="Q82" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R82">
+        <f t="shared" si="1"/>
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -4821,8 +5148,12 @@
       <c r="Q83" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R83">
+        <f t="shared" si="1"/>
+        <v>21.06</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -4874,8 +5205,12 @@
       <c r="Q84" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R84">
+        <f t="shared" si="1"/>
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -4927,8 +5262,12 @@
       <c r="Q85" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R85">
+        <f t="shared" si="1"/>
+        <v>24.31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -4980,8 +5319,12 @@
       <c r="Q86" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R86">
+        <f t="shared" si="1"/>
+        <v>24.69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -5033,8 +5376,12 @@
       <c r="Q87" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R87">
+        <f t="shared" si="1"/>
+        <v>27.63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -5086,8 +5433,12 @@
       <c r="Q88" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R88">
+        <f t="shared" si="1"/>
+        <v>27.88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -5139,8 +5490,12 @@
       <c r="Q89" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R89">
+        <f t="shared" si="1"/>
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -5192,8 +5547,12 @@
       <c r="Q90" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R90">
+        <f t="shared" si="1"/>
+        <v>24.94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -5245,8 +5604,12 @@
       <c r="Q91" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R91">
+        <f t="shared" si="1"/>
+        <v>24.94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -5298,8 +5661,12 @@
       <c r="Q92" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R92">
+        <f t="shared" si="1"/>
+        <v>24.81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -5351,8 +5718,12 @@
       <c r="Q93" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R93">
+        <f t="shared" si="1"/>
+        <v>25.31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -5404,8 +5775,12 @@
       <c r="Q94" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R94">
+        <f t="shared" si="1"/>
+        <v>24.13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -5457,8 +5832,12 @@
       <c r="Q95" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R95">
+        <f t="shared" si="1"/>
+        <v>24.69</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -5510,8 +5889,12 @@
       <c r="Q96" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R96">
+        <f t="shared" si="1"/>
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -5563,8 +5946,12 @@
       <c r="Q97" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R97">
+        <f t="shared" si="1"/>
+        <v>26.81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -5616,8 +6003,12 @@
       <c r="Q98" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R98">
+        <f t="shared" si="1"/>
+        <v>26.19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -5669,8 +6060,12 @@
       <c r="Q99" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R99">
+        <f t="shared" si="1"/>
+        <v>27.63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -5722,8 +6117,12 @@
       <c r="Q100" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R100">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -5775,8 +6174,12 @@
       <c r="Q101" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R101">
+        <f t="shared" si="1"/>
+        <v>32.47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -5828,8 +6231,12 @@
       <c r="Q102" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R102">
+        <f t="shared" si="1"/>
+        <v>37.130000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -5881,8 +6288,12 @@
       <c r="Q103" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R103">
+        <f t="shared" si="1"/>
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -5934,8 +6345,12 @@
       <c r="Q104" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R104">
+        <f t="shared" si="1"/>
+        <v>42.63</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -5987,8 +6402,12 @@
       <c r="Q105" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R105">
+        <f t="shared" si="1"/>
+        <v>40.130000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -6040,8 +6459,12 @@
       <c r="Q106" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R106">
+        <f t="shared" si="1"/>
+        <v>40.75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -6093,8 +6516,12 @@
       <c r="Q107" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R107">
+        <f t="shared" si="1"/>
+        <v>40.380000000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -6146,8 +6573,12 @@
       <c r="Q108" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R108">
+        <f t="shared" si="1"/>
+        <v>45.25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -6199,8 +6630,12 @@
       <c r="Q109" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R109">
+        <f t="shared" si="1"/>
+        <v>52.63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -6252,8 +6687,12 @@
       <c r="Q110" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R110">
+        <f t="shared" si="1"/>
+        <v>53.31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -6305,8 +6744,12 @@
       <c r="Q111" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R111">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -6358,8 +6801,12 @@
       <c r="Q112" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R112">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -6411,8 +6858,12 @@
       <c r="Q113" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R113">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -6464,8 +6915,12 @@
       <c r="Q114" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R114">
+        <f t="shared" si="1"/>
+        <v>52.94</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -6517,8 +6972,12 @@
       <c r="Q115" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R115">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -6570,8 +7029,12 @@
       <c r="Q116" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R116">
+        <f t="shared" si="1"/>
+        <v>42.63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -6623,8 +7086,12 @@
       <c r="Q117" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R117">
+        <f t="shared" si="1"/>
+        <v>45.56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -6676,8 +7143,12 @@
       <c r="Q118" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R118">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -6729,8 +7200,12 @@
       <c r="Q119" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R119">
+        <f t="shared" si="1"/>
+        <v>44.63</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -6782,8 +7257,12 @@
       <c r="Q120" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R120">
+        <f t="shared" si="1"/>
+        <v>44.84</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -6835,8 +7314,12 @@
       <c r="Q121" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R121">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -6888,8 +7371,12 @@
       <c r="Q122" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R122">
+        <f t="shared" si="1"/>
+        <v>44.38</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -6941,8 +7428,12 @@
       <c r="Q123" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R123">
+        <f t="shared" si="1"/>
+        <v>42.94</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -6994,8 +7485,12 @@
       <c r="Q124" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R124">
+        <f t="shared" si="1"/>
+        <v>50.13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -7047,8 +7542,12 @@
       <c r="Q125" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R125">
+        <f t="shared" si="1"/>
+        <v>49.72</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -7100,8 +7599,12 @@
       <c r="Q126" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R126">
+        <f t="shared" si="1"/>
+        <v>43.98</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -7153,8 +7656,12 @@
       <c r="Q127" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R127">
+        <f t="shared" si="1"/>
+        <v>42.97</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -7206,8 +7713,12 @@
       <c r="Q128" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R128">
+        <f t="shared" si="1"/>
+        <v>42.02</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -7259,8 +7770,12 @@
       <c r="Q129" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R129">
+        <f t="shared" si="1"/>
+        <v>45.65</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -7312,8 +7827,12 @@
       <c r="Q130" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R130">
+        <f t="shared" si="1"/>
+        <v>38.99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -7365,8 +7884,12 @@
       <c r="Q131" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R131">
+        <f t="shared" ref="R131:R194" si="2">ROUND(F131,2)</f>
+        <v>39.93</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -7418,8 +7941,12 @@
       <c r="Q132" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R132">
+        <f t="shared" si="2"/>
+        <v>37.119999999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -7471,8 +7998,12 @@
       <c r="Q133" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R133">
+        <f t="shared" si="2"/>
+        <v>34.68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -7524,8 +8055,12 @@
       <c r="Q134" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R134">
+        <f t="shared" si="2"/>
+        <v>28.14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -7577,8 +8112,12 @@
       <c r="Q135" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R135">
+        <f t="shared" si="2"/>
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -7630,8 +8169,12 @@
       <c r="Q136" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R136">
+        <f t="shared" si="2"/>
+        <v>27.55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -7683,8 +8226,12 @@
       <c r="Q137" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R137">
+        <f t="shared" si="2"/>
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -7736,8 +8283,12 @@
       <c r="Q138" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R138">
+        <f t="shared" si="2"/>
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -7789,8 +8340,12 @@
       <c r="Q139" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R139">
+        <f t="shared" si="2"/>
+        <v>21.38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -7842,8 +8397,12 @@
       <c r="Q140" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R140">
+        <f t="shared" si="2"/>
+        <v>22.12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -7895,8 +8454,12 @@
       <c r="Q141" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R141">
+        <f t="shared" si="2"/>
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -7948,8 +8511,12 @@
       <c r="Q142" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R142">
+        <f t="shared" si="2"/>
+        <v>23.77</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -8001,8 +8568,12 @@
       <c r="Q143" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R143">
+        <f t="shared" si="2"/>
+        <v>23.43</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -8054,8 +8625,12 @@
       <c r="Q144" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R144">
+        <f t="shared" si="2"/>
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -8107,8 +8682,12 @@
       <c r="Q145" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R145">
+        <f t="shared" si="2"/>
+        <v>24.39</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -8160,8 +8739,12 @@
       <c r="Q146" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R146">
+        <f t="shared" si="2"/>
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -8213,8 +8796,12 @@
       <c r="Q147" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R147">
+        <f t="shared" si="2"/>
+        <v>24.87</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -8266,8 +8853,12 @@
       <c r="Q148" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R148">
+        <f t="shared" si="2"/>
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -8319,8 +8910,12 @@
       <c r="Q149" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R149">
+        <f t="shared" si="2"/>
+        <v>24.81</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -8372,8 +8967,12 @@
       <c r="Q150" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R150">
+        <f t="shared" si="2"/>
+        <v>25.34</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -8425,8 +9024,12 @@
       <c r="Q151" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R151">
+        <f t="shared" si="2"/>
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -8478,8 +9081,12 @@
       <c r="Q152" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R152">
+        <f t="shared" si="2"/>
+        <v>26.15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -8531,8 +9138,12 @@
       <c r="Q153" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R153">
+        <f t="shared" si="2"/>
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -8584,8 +9195,12 @@
       <c r="Q154" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R154">
+        <f t="shared" si="2"/>
+        <v>24.38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -8637,8 +9252,12 @@
       <c r="Q155" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R155">
+        <f t="shared" si="2"/>
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -8690,8 +9309,12 @@
       <c r="Q156" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R156">
+        <f t="shared" si="2"/>
+        <v>24.36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -8743,8 +9366,12 @@
       <c r="Q157" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R157">
+        <f t="shared" si="2"/>
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -8796,8 +9423,12 @@
       <c r="Q158" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R158">
+        <f t="shared" si="2"/>
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -8849,8 +9480,12 @@
       <c r="Q159" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R159">
+        <f t="shared" si="2"/>
+        <v>23.73</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>17</v>
       </c>
@@ -8902,8 +9537,12 @@
       <c r="Q160" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R160">
+        <f t="shared" si="2"/>
+        <v>23.91</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>17</v>
       </c>
@@ -8955,8 +9594,12 @@
       <c r="Q161" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R161">
+        <f t="shared" si="2"/>
+        <v>23.94</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -9008,8 +9651,12 @@
       <c r="Q162" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R162">
+        <f t="shared" si="2"/>
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -9061,8 +9708,12 @@
       <c r="Q163" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R163">
+        <f t="shared" si="2"/>
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -9114,8 +9765,12 @@
       <c r="Q164" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R164">
+        <f t="shared" si="2"/>
+        <v>23.94</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -9167,8 +9822,12 @@
       <c r="Q165" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R165">
+        <f t="shared" si="2"/>
+        <v>23.65</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -9220,8 +9879,12 @@
       <c r="Q166" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R166">
+        <f t="shared" si="2"/>
+        <v>25.02</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -9273,8 +9936,12 @@
       <c r="Q167" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R167">
+        <f t="shared" si="2"/>
+        <v>25.21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -9326,8 +9993,12 @@
       <c r="Q168" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R168">
+        <f t="shared" si="2"/>
+        <v>26.16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -9379,8 +10050,12 @@
       <c r="Q169" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R169">
+        <f t="shared" si="2"/>
+        <v>26.14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -9432,8 +10107,12 @@
       <c r="Q170" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R170">
+        <f t="shared" si="2"/>
+        <v>26.06</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -9485,8 +10164,12 @@
       <c r="Q171" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R171">
+        <f t="shared" si="2"/>
+        <v>28.95</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>17</v>
       </c>
@@ -9538,8 +10221,12 @@
       <c r="Q172" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R172">
+        <f t="shared" si="2"/>
+        <v>34.24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -9591,8 +10278,12 @@
       <c r="Q173" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R173">
+        <f t="shared" si="2"/>
+        <v>35.36</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -9644,8 +10335,12 @@
       <c r="Q174" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R174">
+        <f t="shared" si="2"/>
+        <v>37.21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>17</v>
       </c>
@@ -9697,8 +10392,12 @@
       <c r="Q175" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R175">
+        <f t="shared" si="2"/>
+        <v>39.270000000000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>17</v>
       </c>
@@ -9750,8 +10449,12 @@
       <c r="Q176" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R176">
+        <f t="shared" si="2"/>
+        <v>41.85</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -9803,8 +10506,12 @@
       <c r="Q177" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R177">
+        <f t="shared" si="2"/>
+        <v>40.46</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>17</v>
       </c>
@@ -9856,8 +10563,12 @@
       <c r="Q178" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R178">
+        <f t="shared" si="2"/>
+        <v>40.36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>17</v>
       </c>
@@ -9909,8 +10620,12 @@
       <c r="Q179" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R179">
+        <f t="shared" si="2"/>
+        <v>39.86</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -9962,8 +10677,12 @@
       <c r="Q180" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R180">
+        <f t="shared" si="2"/>
+        <v>39.46</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -10015,8 +10734,12 @@
       <c r="Q181" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R181">
+        <f t="shared" si="2"/>
+        <v>37.840000000000003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -10068,8 +10791,12 @@
       <c r="Q182" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R182">
+        <f t="shared" si="2"/>
+        <v>37.07</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -10121,8 +10848,12 @@
       <c r="Q183" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R183">
+        <f t="shared" si="2"/>
+        <v>38.58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -10174,8 +10905,12 @@
       <c r="Q184" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R184">
+        <f t="shared" si="2"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -10227,8 +10962,12 @@
       <c r="Q185" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R185">
+        <f t="shared" si="2"/>
+        <v>31.66</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -10280,8 +11019,12 @@
       <c r="Q186" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R186">
+        <f t="shared" si="2"/>
+        <v>32.229999999999997</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>17</v>
       </c>
@@ -10333,8 +11076,12 @@
       <c r="Q187" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R187">
+        <f t="shared" si="2"/>
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>17</v>
       </c>
@@ -10386,8 +11133,12 @@
       <c r="Q188" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R188">
+        <f t="shared" si="2"/>
+        <v>28.56</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -10439,8 +11190,12 @@
       <c r="Q189" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R189">
+        <f t="shared" si="2"/>
+        <v>29.42</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -10492,8 +11247,12 @@
       <c r="Q190" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R190">
+        <f t="shared" si="2"/>
+        <v>24.36</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -10545,8 +11304,12 @@
       <c r="Q191" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R191">
+        <f t="shared" si="2"/>
+        <v>26.69</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -10598,8 +11361,12 @@
       <c r="Q192" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R192">
+        <f t="shared" si="2"/>
+        <v>24.22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -10651,8 +11418,12 @@
       <c r="Q193" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R193">
+        <f t="shared" si="2"/>
+        <v>24.85</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>17</v>
       </c>
@@ -10704,8 +11475,12 @@
       <c r="Q194" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R194">
+        <f t="shared" si="2"/>
+        <v>24.84</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>17</v>
       </c>
@@ -10757,8 +11532,12 @@
       <c r="Q195" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R195">
+        <f t="shared" ref="R195:R254" si="3">ROUND(F195,2)</f>
+        <v>26.14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>17</v>
       </c>
@@ -10810,8 +11589,12 @@
       <c r="Q196" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R196">
+        <f t="shared" si="3"/>
+        <v>26.56</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -10863,8 +11646,12 @@
       <c r="Q197" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R197">
+        <f t="shared" si="3"/>
+        <v>26.36</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>17</v>
       </c>
@@ -10916,8 +11703,12 @@
       <c r="Q198" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R198">
+        <f t="shared" si="3"/>
+        <v>25.56</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>17</v>
       </c>
@@ -10969,8 +11760,12 @@
       <c r="Q199" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R199">
+        <f t="shared" si="3"/>
+        <v>25.17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>17</v>
       </c>
@@ -11022,8 +11817,12 @@
       <c r="Q200" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R200">
+        <f t="shared" si="3"/>
+        <v>25.51</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>17</v>
       </c>
@@ -11075,8 +11874,12 @@
       <c r="Q201" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R201">
+        <f t="shared" si="3"/>
+        <v>28.94</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>17</v>
       </c>
@@ -11128,8 +11931,12 @@
       <c r="Q202" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R202">
+        <f t="shared" si="3"/>
+        <v>28.82</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>17</v>
       </c>
@@ -11181,8 +11988,12 @@
       <c r="Q203" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R203">
+        <f t="shared" si="3"/>
+        <v>28.46</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>17</v>
       </c>
@@ -11234,8 +12045,12 @@
       <c r="Q204" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R204">
+        <f t="shared" si="3"/>
+        <v>28.17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>17</v>
       </c>
@@ -11287,8 +12102,12 @@
       <c r="Q205" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R205">
+        <f t="shared" si="3"/>
+        <v>28.79</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>17</v>
       </c>
@@ -11340,8 +12159,12 @@
       <c r="Q206" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R206">
+        <f t="shared" si="3"/>
+        <v>28.54</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>17</v>
       </c>
@@ -11393,8 +12216,12 @@
       <c r="Q207" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R207">
+        <f t="shared" si="3"/>
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -11446,8 +12273,12 @@
       <c r="Q208" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R208">
+        <f t="shared" si="3"/>
+        <v>31.26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>17</v>
       </c>
@@ -11499,8 +12330,12 @@
       <c r="Q209" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R209">
+        <f t="shared" si="3"/>
+        <v>29.04</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>17</v>
       </c>
@@ -11552,8 +12387,12 @@
       <c r="Q210" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R210">
+        <f t="shared" si="3"/>
+        <v>28.85</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -11605,8 +12444,12 @@
       <c r="Q211" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R211">
+        <f t="shared" si="3"/>
+        <v>28.84</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>17</v>
       </c>
@@ -11658,8 +12501,12 @@
       <c r="Q212" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R212">
+        <f t="shared" si="3"/>
+        <v>29.15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>17</v>
       </c>
@@ -11711,8 +12558,12 @@
       <c r="Q213" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R213">
+        <f t="shared" si="3"/>
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>17</v>
       </c>
@@ -11764,8 +12615,12 @@
       <c r="Q214" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R214">
+        <f t="shared" si="3"/>
+        <v>31.74</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>17</v>
       </c>
@@ -11817,8 +12672,12 @@
       <c r="Q215" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R215">
+        <f t="shared" si="3"/>
+        <v>36.19</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>17</v>
       </c>
@@ -11870,8 +12729,12 @@
       <c r="Q216" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R216">
+        <f t="shared" si="3"/>
+        <v>37.14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>17</v>
       </c>
@@ -11923,8 +12786,12 @@
       <c r="Q217" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R217">
+        <f t="shared" si="3"/>
+        <v>37.42</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>17</v>
       </c>
@@ -11976,8 +12843,12 @@
       <c r="Q218" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R218">
+        <f t="shared" si="3"/>
+        <v>33.909999999999997</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>17</v>
       </c>
@@ -12029,8 +12900,12 @@
       <c r="Q219" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R219">
+        <f t="shared" si="3"/>
+        <v>34.15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -12082,8 +12957,12 @@
       <c r="Q220" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R220">
+        <f t="shared" si="3"/>
+        <v>35.020000000000003</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -12135,8 +13014,12 @@
       <c r="Q221" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R221">
+        <f t="shared" si="3"/>
+        <v>34.68</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -12188,8 +13071,12 @@
       <c r="Q222" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R222">
+        <f t="shared" si="3"/>
+        <v>35.53</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>17</v>
       </c>
@@ -12241,8 +13128,12 @@
       <c r="Q223" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R223">
+        <f t="shared" si="3"/>
+        <v>34.32</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -12294,8 +13185,12 @@
       <c r="Q224" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R224">
+        <f t="shared" si="3"/>
+        <v>34.61</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -12347,8 +13242,12 @@
       <c r="Q225" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R225">
+        <f t="shared" si="3"/>
+        <v>35.72</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -12400,8 +13299,12 @@
       <c r="Q226" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R226">
+        <f t="shared" si="3"/>
+        <v>35.159999999999997</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -12453,8 +13356,12 @@
       <c r="Q227" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R227">
+        <f t="shared" si="3"/>
+        <v>33.18</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -12506,8 +13413,12 @@
       <c r="Q228" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R228">
+        <f t="shared" si="3"/>
+        <v>32.979999999999997</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>17</v>
       </c>
@@ -12559,8 +13470,12 @@
       <c r="Q229" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R229">
+        <f t="shared" si="3"/>
+        <v>35.630000000000003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -12612,8 +13527,12 @@
       <c r="Q230" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R230">
+        <f t="shared" si="3"/>
+        <v>35.39</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>17</v>
       </c>
@@ -12665,8 +13584,12 @@
       <c r="Q231" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R231">
+        <f t="shared" si="3"/>
+        <v>36.590000000000003</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>17</v>
       </c>
@@ -12718,8 +13641,12 @@
       <c r="Q232" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R232">
+        <f t="shared" si="3"/>
+        <v>34.97</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>17</v>
       </c>
@@ -12771,8 +13698,12 @@
       <c r="Q233" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R233">
+        <f t="shared" si="3"/>
+        <v>35.020000000000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -12824,8 +13755,12 @@
       <c r="Q234" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R234">
+        <f t="shared" si="3"/>
+        <v>34.840000000000003</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>17</v>
       </c>
@@ -12877,8 +13812,12 @@
       <c r="Q235" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R235">
+        <f t="shared" si="3"/>
+        <v>34.17</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -12930,8 +13869,12 @@
       <c r="Q236" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R236">
+        <f t="shared" si="3"/>
+        <v>34.409999999999997</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -12983,8 +13926,12 @@
       <c r="Q237" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R237">
+        <f t="shared" si="3"/>
+        <v>34.229999999999997</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -13036,8 +13983,12 @@
       <c r="Q238" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R238">
+        <f t="shared" si="3"/>
+        <v>33.43</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -13089,8 +14040,12 @@
       <c r="Q239" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R239">
+        <f t="shared" si="3"/>
+        <v>33.659999999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>17</v>
       </c>
@@ -13142,8 +14097,12 @@
       <c r="Q240" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R240">
+        <f t="shared" si="3"/>
+        <v>34.54</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -13195,8 +14154,12 @@
       <c r="Q241" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R241">
+        <f t="shared" si="3"/>
+        <v>38.909999999999997</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -13248,8 +14211,12 @@
       <c r="Q242" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R242">
+        <f t="shared" si="3"/>
+        <v>38.840000000000003</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -13301,8 +14268,12 @@
       <c r="Q243" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R243">
+        <f t="shared" si="3"/>
+        <v>41.14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -13354,8 +14325,12 @@
       <c r="Q244" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R244">
+        <f t="shared" si="3"/>
+        <v>37.74</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -13407,8 +14382,12 @@
       <c r="Q245" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R245">
+        <f t="shared" si="3"/>
+        <v>42.16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -13460,8 +14439,12 @@
       <c r="Q246" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R246">
+        <f t="shared" si="3"/>
+        <v>41.59</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -13513,8 +14496,12 @@
       <c r="Q247" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R247">
+        <f t="shared" si="3"/>
+        <v>38.869999999999997</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -13566,8 +14553,12 @@
       <c r="Q248" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R248">
+        <f t="shared" si="3"/>
+        <v>39.409999999999997</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -13619,8 +14610,12 @@
       <c r="Q249" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R249">
+        <f t="shared" si="3"/>
+        <v>38.43</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -13672,8 +14667,12 @@
       <c r="Q250" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R250">
+        <f t="shared" si="3"/>
+        <v>34.64</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -13725,8 +14724,12 @@
       <c r="Q251" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R251">
+        <f t="shared" si="3"/>
+        <v>39.159999999999997</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -13778,8 +14781,12 @@
       <c r="Q252" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R252">
+        <f t="shared" si="3"/>
+        <v>37.11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -13831,8 +14838,12 @@
       <c r="Q253" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R253">
+        <f t="shared" si="3"/>
+        <v>32.57</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -13883,6 +14894,10 @@
       </c>
       <c r="Q254" t="s">
         <v>18</v>
+      </c>
+      <c r="R254">
+        <f t="shared" si="3"/>
+        <v>32.270000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -13892,10 +14907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A124A3-86B2-4EC0-88FC-4659C67C5C9D}">
-  <dimension ref="A1:P254"/>
+  <dimension ref="A1:O254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13904,7 +14919,7 @@
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13942,7 +14957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -13979,10 +14994,10 @@
       <c r="L2">
         <v>-38.76</v>
       </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -14019,10 +15034,10 @@
       <c r="L3">
         <v>30</v>
       </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -14059,10 +15074,10 @@
       <c r="L4">
         <v>21.52</v>
       </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -14099,10 +15114,10 @@
       <c r="L5">
         <v>-25.56</v>
       </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -14139,10 +15154,10 @@
       <c r="L6">
         <v>-66.92</v>
       </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -14159,7 +15174,7 @@
         <v>31009</v>
       </c>
       <c r="F7">
-        <v>5.6500009999999996</v>
+        <v>5.65</v>
       </c>
       <c r="G7" s="2">
         <v>4.24E-2</v>
@@ -14179,10 +15194,10 @@
       <c r="L7">
         <v>-109.01</v>
       </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -14219,10 +15234,10 @@
       <c r="L8">
         <v>-148.57</v>
       </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -14259,10 +15274,10 @@
       <c r="L9">
         <v>-164.67</v>
       </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -14299,10 +15314,10 @@
       <c r="L10">
         <v>-182.05</v>
       </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -14339,10 +15354,10 @@
       <c r="L11">
         <v>-213.45</v>
       </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -14379,10 +15394,10 @@
       <c r="L12">
         <v>-244.53</v>
       </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -14419,10 +15434,10 @@
       <c r="L13">
         <v>-263.25</v>
       </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -14459,10 +15474,10 @@
       <c r="L14">
         <v>-245.85</v>
       </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -14499,10 +15514,10 @@
       <c r="L15">
         <v>-302.01</v>
       </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -14539,10 +15554,10 @@
       <c r="L16">
         <v>-296.97000000000003</v>
       </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -14579,10 +15594,10 @@
       <c r="L17">
         <v>-312.20999999999998</v>
       </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -14619,10 +15634,10 @@
       <c r="L18">
         <v>-329.99</v>
       </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -14659,10 +15674,10 @@
       <c r="L19">
         <v>-347.84</v>
       </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -14699,10 +15714,10 @@
       <c r="L20">
         <v>-362.4</v>
       </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -14739,10 +15754,10 @@
       <c r="L21">
         <v>-382.02</v>
       </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -14779,10 +15794,10 @@
       <c r="L22">
         <v>-398.37</v>
       </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -14819,10 +15834,10 @@
       <c r="L23">
         <v>-414.69</v>
       </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -14859,10 +15874,10 @@
       <c r="L24">
         <v>-420.69</v>
       </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -14899,10 +15914,10 @@
       <c r="L25">
         <v>-371.69</v>
       </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -14939,10 +15954,10 @@
       <c r="L26">
         <v>-465.48</v>
       </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -14979,10 +15994,10 @@
       <c r="L27">
         <v>-468.48</v>
       </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -15019,10 +16034,10 @@
       <c r="L28">
         <v>-546.69000000000005</v>
       </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -15059,10 +16074,10 @@
       <c r="L29">
         <v>-452.6</v>
       </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -15099,10 +16114,10 @@
       <c r="L30">
         <v>-478.35</v>
       </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -15139,10 +16154,10 @@
       <c r="L31">
         <v>-504.1</v>
       </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -15179,10 +16194,10 @@
       <c r="L32">
         <v>-500.95</v>
       </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -15219,10 +16234,10 @@
       <c r="L33">
         <v>-510.85</v>
       </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -15259,10 +16274,10 @@
       <c r="L34">
         <v>-549.61</v>
       </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -15299,10 +16314,10 @@
       <c r="L35">
         <v>-567.47</v>
       </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -15339,10 +16354,10 @@
       <c r="L36">
         <v>-578.63</v>
       </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -15379,10 +16394,10 @@
       <c r="L37">
         <v>-594.78</v>
       </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -15419,10 +16434,10 @@
       <c r="L38">
         <v>-629.63</v>
       </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -15459,10 +16474,10 @@
       <c r="L39">
         <v>-659.15</v>
       </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -15499,10 +16514,10 @@
       <c r="L40">
         <v>-672.07</v>
       </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -15539,10 +16554,10 @@
       <c r="L41">
         <v>-703.09</v>
       </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -15579,10 +16594,10 @@
       <c r="L42">
         <v>-719.59</v>
       </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -15619,10 +16634,10 @@
       <c r="L43">
         <v>-679.91</v>
       </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -15659,10 +16674,10 @@
       <c r="L44">
         <v>-705.37</v>
       </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -15699,10 +16714,10 @@
       <c r="L45">
         <v>-763.17</v>
       </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -15739,10 +16754,10 @@
       <c r="L46">
         <v>-713.25</v>
       </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -15779,10 +16794,10 @@
       <c r="L47">
         <v>-739.15</v>
       </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -15819,10 +16834,10 @@
       <c r="L48">
         <v>-712.51</v>
       </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -15859,10 +16874,10 @@
       <c r="L49">
         <v>-774.11</v>
       </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -15899,10 +16914,10 @@
       <c r="L50">
         <v>-810.68</v>
       </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -15939,10 +16954,10 @@
       <c r="L51">
         <v>-802.76</v>
       </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -15979,10 +16994,10 @@
       <c r="L52">
         <v>-812.96</v>
       </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -16019,10 +17034,10 @@
       <c r="L53">
         <v>-780.53</v>
       </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -16059,10 +17074,10 @@
       <c r="L54">
         <v>-808.53</v>
       </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -16099,10 +17114,10 @@
       <c r="L55">
         <v>-867.33</v>
       </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -16139,10 +17154,10 @@
       <c r="L56">
         <v>-892.41</v>
       </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -16179,10 +17194,10 @@
       <c r="L57">
         <v>-925.91</v>
       </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -16219,10 +17234,10 @@
       <c r="L58">
         <v>-952.75</v>
       </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -16259,10 +17274,10 @@
       <c r="L59">
         <v>-945.08</v>
       </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -16299,10 +17314,10 @@
       <c r="L60">
         <v>-987.86</v>
       </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -16339,10 +17354,10 @@
       <c r="L61">
         <v>-998.48</v>
       </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -16379,10 +17394,10 @@
       <c r="L62">
         <v>-1031.52</v>
       </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -16419,10 +17434,10 @@
       <c r="L63">
         <v>-1051.6600000000001</v>
       </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -16459,10 +17474,10 @@
       <c r="L64">
         <v>-1076.04</v>
       </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -16499,10 +17514,10 @@
       <c r="L65">
         <v>-1111.02</v>
       </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -16539,10 +17554,10 @@
       <c r="L66">
         <v>-1118.7</v>
       </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -16579,10 +17594,10 @@
       <c r="L67">
         <v>-1151.82</v>
       </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -16619,10 +17634,10 @@
       <c r="L68">
         <v>-1166.08</v>
       </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -16659,10 +17674,10 @@
       <c r="L69">
         <v>-1203.3399999999999</v>
       </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -16699,10 +17714,10 @@
       <c r="L70">
         <v>-1205.8</v>
       </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -16739,10 +17754,10 @@
       <c r="L71">
         <v>-1274.26</v>
       </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -16779,10 +17794,10 @@
       <c r="L72">
         <v>-1305.76</v>
       </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -16819,10 +17834,10 @@
       <c r="L73">
         <v>-1313.55</v>
       </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -16859,10 +17874,10 @@
       <c r="L74">
         <v>-1332.91</v>
       </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -16899,10 +17914,10 @@
       <c r="L75">
         <v>-1373.33</v>
       </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -16939,10 +17954,10 @@
       <c r="L76">
         <v>-1386.35</v>
       </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -16979,10 +17994,10 @@
       <c r="L77">
         <v>-1391.15</v>
       </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -17019,10 +18034,10 @@
       <c r="L78">
         <v>-1426.82</v>
       </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -17059,10 +18074,10 @@
       <c r="L79">
         <v>-1472.4</v>
       </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -17099,10 +18114,10 @@
       <c r="L80">
         <v>-1503.9</v>
       </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -17139,10 +18154,10 @@
       <c r="L81">
         <v>-1514.15</v>
       </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -17179,10 +18194,10 @@
       <c r="L82">
         <v>-1526.86</v>
       </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -17219,10 +18234,10 @@
       <c r="L83">
         <v>-1552.28</v>
       </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -17259,10 +18274,10 @@
       <c r="L84">
         <v>-1608.44</v>
       </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -17299,10 +18314,10 @@
       <c r="L85">
         <v>-1643.44</v>
       </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -17339,10 +18354,10 @@
       <c r="L86">
         <v>-1651.94</v>
       </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -17379,10 +18394,10 @@
       <c r="L87">
         <v>-1669.04</v>
       </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -17419,10 +18434,10 @@
       <c r="L88">
         <v>-1686.14</v>
       </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -17459,10 +18474,10 @@
       <c r="L89">
         <v>-1713.11</v>
       </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -17499,10 +18514,10 @@
       <c r="L90">
         <v>-1636.31</v>
       </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -17539,10 +18554,10 @@
       <c r="L91">
         <v>-1646.54</v>
       </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -17579,10 +18594,10 @@
       <c r="L92">
         <v>-1678.16</v>
       </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -17619,10 +18634,10 @@
       <c r="L93">
         <v>-1722.7</v>
       </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -17659,10 +18674,10 @@
       <c r="L94">
         <v>-1706.2</v>
       </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -17699,10 +18714,10 @@
       <c r="L95">
         <v>-1725.24</v>
       </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -17739,10 +18754,10 @@
       <c r="L96">
         <v>-1755.16</v>
       </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -17779,10 +18794,10 @@
       <c r="L97">
         <v>-1818.85</v>
       </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -17819,10 +18834,10 @@
       <c r="L98">
         <v>-1850.85</v>
       </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -17859,10 +18874,10 @@
       <c r="L99">
         <v>-1845.63</v>
       </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -17899,10 +18914,10 @@
       <c r="L100">
         <v>-1821.87</v>
       </c>
+      <c r="N100" s="2"/>
       <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -17939,10 +18954,10 @@
       <c r="L101">
         <v>-1838.37</v>
       </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -17979,10 +18994,10 @@
       <c r="L102">
         <v>-1852.89</v>
       </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -18019,10 +19034,10 @@
       <c r="L103">
         <v>-1888.38</v>
       </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -18059,10 +19074,10 @@
       <c r="L104">
         <v>-1938.38</v>
       </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -18099,10 +19114,10 @@
       <c r="L105">
         <v>-1952.18</v>
       </c>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -18139,10 +19154,10 @@
       <c r="L106">
         <v>-1965.98</v>
       </c>
+      <c r="N106" s="2"/>
       <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -18179,10 +19194,10 @@
       <c r="L107">
         <v>-1973.58</v>
       </c>
+      <c r="N107" s="2"/>
       <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -18219,10 +19234,10 @@
       <c r="L108">
         <v>-2016.24</v>
       </c>
+      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -18259,10 +19274,10 @@
       <c r="L109">
         <v>-1996.22</v>
       </c>
+      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -18299,10 +19314,10 @@
       <c r="L110">
         <v>-2064.2199999999998</v>
       </c>
+      <c r="N110" s="2"/>
       <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -18339,10 +19354,10 @@
       <c r="L111">
         <v>-2102.62</v>
       </c>
+      <c r="N111" s="2"/>
       <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -18379,10 +19394,10 @@
       <c r="L112">
         <v>-2120.12</v>
       </c>
+      <c r="N112" s="2"/>
       <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -18419,10 +19434,10 @@
       <c r="L113">
         <v>-2178.7800000000002</v>
       </c>
+      <c r="N113" s="2"/>
       <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -18459,10 +19474,10 @@
       <c r="L114">
         <v>-2142.94</v>
       </c>
+      <c r="N114" s="2"/>
       <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -18499,10 +19514,10 @@
       <c r="L115">
         <v>-2215.9</v>
       </c>
+      <c r="N115" s="2"/>
       <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -18539,10 +19554,10 @@
       <c r="L116">
         <v>-2098.15</v>
       </c>
+      <c r="N116" s="2"/>
       <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -18579,10 +19594,10 @@
       <c r="L117">
         <v>-2200.1799999999998</v>
       </c>
+      <c r="N117" s="2"/>
       <c r="O117" s="2"/>
-      <c r="P117" s="2"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -18619,10 +19634,10 @@
       <c r="L118">
         <v>-2269.84</v>
       </c>
+      <c r="N118" s="2"/>
       <c r="O118" s="2"/>
-      <c r="P118" s="2"/>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -18659,10 +19674,10 @@
       <c r="L119">
         <v>-2337.34</v>
       </c>
+      <c r="N119" s="2"/>
       <c r="O119" s="2"/>
-      <c r="P119" s="2"/>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -18699,10 +19714,10 @@
       <c r="L120">
         <v>-2381.62</v>
       </c>
+      <c r="N120" s="2"/>
       <c r="O120" s="2"/>
-      <c r="P120" s="2"/>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -18739,10 +19754,10 @@
       <c r="L121">
         <v>-2413.41</v>
       </c>
+      <c r="N121" s="2"/>
       <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -18779,10 +19794,10 @@
       <c r="L122">
         <v>-2432.62</v>
       </c>
+      <c r="N122" s="2"/>
       <c r="O122" s="2"/>
-      <c r="P122" s="2"/>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -18819,10 +19834,10 @@
       <c r="L123">
         <v>-2440.1</v>
       </c>
+      <c r="N123" s="2"/>
       <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -18859,10 +19874,10 @@
       <c r="L124">
         <v>-2367.04</v>
       </c>
+      <c r="N124" s="2"/>
       <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -18899,10 +19914,10 @@
       <c r="L125">
         <v>-2404.48</v>
       </c>
+      <c r="N125" s="2"/>
       <c r="O125" s="2"/>
-      <c r="P125" s="2"/>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -18939,10 +19954,10 @@
       <c r="L126">
         <v>-2363.04</v>
       </c>
+      <c r="N126" s="2"/>
       <c r="O126" s="2"/>
-      <c r="P126" s="2"/>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -18979,10 +19994,10 @@
       <c r="L127">
         <v>-2395.2600000000002</v>
       </c>
+      <c r="N127" s="2"/>
       <c r="O127" s="2"/>
-      <c r="P127" s="2"/>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -19019,10 +20034,10 @@
       <c r="L128">
         <v>-2394.7199999999998</v>
       </c>
+      <c r="N128" s="2"/>
       <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -19059,10 +20074,10 @@
       <c r="L129">
         <v>-2427.87</v>
       </c>
+      <c r="N129" s="2"/>
       <c r="O129" s="2"/>
-      <c r="P129" s="2"/>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -19099,10 +20114,10 @@
       <c r="L130">
         <v>-2353.0700000000002</v>
       </c>
+      <c r="N130" s="2"/>
       <c r="O130" s="2"/>
-      <c r="P130" s="2"/>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -19139,10 +20154,10 @@
       <c r="L131">
         <v>-2394.67</v>
       </c>
+      <c r="N131" s="2"/>
       <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -19179,10 +20194,10 @@
       <c r="L132">
         <v>-2380.4699999999998</v>
       </c>
+      <c r="N132" s="2"/>
       <c r="O132" s="2"/>
-      <c r="P132" s="2"/>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -19219,10 +20234,10 @@
       <c r="L133">
         <v>-2321.0700000000002</v>
       </c>
+      <c r="N133" s="2"/>
       <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -19259,10 +20274,10 @@
       <c r="L134">
         <v>-2224.2399999999998</v>
       </c>
+      <c r="N134" s="2"/>
       <c r="O134" s="2"/>
-      <c r="P134" s="2"/>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -19299,10 +20314,10 @@
       <c r="L135">
         <v>-2147.44</v>
       </c>
+      <c r="N135" s="2"/>
       <c r="O135" s="2"/>
-      <c r="P135" s="2"/>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -19339,10 +20354,10 @@
       <c r="L136">
         <v>-2248.2399999999998</v>
       </c>
+      <c r="N136" s="2"/>
       <c r="O136" s="2"/>
-      <c r="P136" s="2"/>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -19379,10 +20394,10 @@
       <c r="L137">
         <v>-2295.04</v>
       </c>
+      <c r="N137" s="2"/>
       <c r="O137" s="2"/>
-      <c r="P137" s="2"/>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -19419,10 +20434,10 @@
       <c r="L138">
         <v>-2158.4</v>
       </c>
+      <c r="N138" s="2"/>
       <c r="O138" s="2"/>
-      <c r="P138" s="2"/>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -19459,10 +20474,10 @@
       <c r="L139">
         <v>-2209.88</v>
       </c>
+      <c r="N139" s="2"/>
       <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -19499,10 +20514,10 @@
       <c r="L140">
         <v>-2243.36</v>
       </c>
+      <c r="N140" s="2"/>
       <c r="O140" s="2"/>
-      <c r="P140" s="2"/>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -19539,10 +20554,10 @@
       <c r="L141">
         <v>-2259.89</v>
       </c>
+      <c r="N141" s="2"/>
       <c r="O141" s="2"/>
-      <c r="P141" s="2"/>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -19579,10 +20594,10 @@
       <c r="L142">
         <v>-2223.59</v>
       </c>
+      <c r="N142" s="2"/>
       <c r="O142" s="2"/>
-      <c r="P142" s="2"/>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -19619,10 +20634,10 @@
       <c r="L143">
         <v>-2241.7399999999998</v>
       </c>
+      <c r="N143" s="2"/>
       <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -19659,10 +20674,10 @@
       <c r="L144">
         <v>-2273.2399999999998</v>
       </c>
+      <c r="N144" s="2"/>
       <c r="O144" s="2"/>
-      <c r="P144" s="2"/>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -19699,10 +20714,10 @@
       <c r="L145">
         <v>-2318.12</v>
       </c>
+      <c r="N145" s="2"/>
       <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -19739,10 +20754,10 @@
       <c r="L146">
         <v>-2305.8200000000002</v>
       </c>
+      <c r="N146" s="2"/>
       <c r="O146" s="2"/>
-      <c r="P146" s="2"/>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -19779,10 +20794,10 @@
       <c r="L147">
         <v>-2331.2399999999998</v>
       </c>
+      <c r="N147" s="2"/>
       <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -19819,10 +20834,10 @@
       <c r="L148">
         <v>-2369.6799999999998</v>
       </c>
+      <c r="N148" s="2"/>
       <c r="O148" s="2"/>
-      <c r="P148" s="2"/>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -19859,10 +20874,10 @@
       <c r="L149">
         <v>-2379.29</v>
       </c>
+      <c r="N149" s="2"/>
       <c r="O149" s="2"/>
-      <c r="P149" s="2"/>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -19899,10 +20914,10 @@
       <c r="L150">
         <v>-2428.5700000000002</v>
       </c>
+      <c r="N150" s="2"/>
       <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -19939,10 +20954,10 @@
       <c r="L151">
         <v>-2464.2399999999998</v>
       </c>
+      <c r="N151" s="2"/>
       <c r="O151" s="2"/>
-      <c r="P151" s="2"/>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -19979,10 +20994,10 @@
       <c r="L152">
         <v>-2490.63</v>
       </c>
+      <c r="N152" s="2"/>
       <c r="O152" s="2"/>
-      <c r="P152" s="2"/>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -20019,10 +21034,10 @@
       <c r="L153">
         <v>-2500.4899999999998</v>
       </c>
+      <c r="N153" s="2"/>
       <c r="O153" s="2"/>
-      <c r="P153" s="2"/>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -20059,10 +21074,10 @@
       <c r="L154">
         <v>-2473.23</v>
       </c>
+      <c r="N154" s="2"/>
       <c r="O154" s="2"/>
-      <c r="P154" s="2"/>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -20099,10 +21114,10 @@
       <c r="L155">
         <v>-2477.88</v>
       </c>
+      <c r="N155" s="2"/>
       <c r="O155" s="2"/>
-      <c r="P155" s="2"/>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -20139,10 +21154,10 @@
       <c r="L156">
         <v>-2488.11</v>
       </c>
+      <c r="N156" s="2"/>
       <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -20179,10 +21194,10 @@
       <c r="L157">
         <v>-2491.21</v>
       </c>
+      <c r="N157" s="2"/>
       <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -20219,10 +21234,10 @@
       <c r="L158">
         <v>-2510.09</v>
       </c>
+      <c r="N158" s="2"/>
       <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -20259,10 +21274,10 @@
       <c r="L159">
         <v>-2525.4499999999998</v>
       </c>
+      <c r="N159" s="2"/>
       <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>17</v>
       </c>
@@ -20299,10 +21314,10 @@
       <c r="L160">
         <v>-2545.61</v>
       </c>
+      <c r="N160" s="2"/>
       <c r="O160" s="2"/>
-      <c r="P160" s="2"/>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>17</v>
       </c>
@@ -20339,10 +21354,10 @@
       <c r="L161">
         <v>-2553.0500000000002</v>
       </c>
+      <c r="N161" s="2"/>
       <c r="O161" s="2"/>
-      <c r="P161" s="2"/>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -20379,10 +21394,10 @@
       <c r="L162">
         <v>-2569.48</v>
       </c>
+      <c r="N162" s="2"/>
       <c r="O162" s="2"/>
-      <c r="P162" s="2"/>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -20419,10 +21434,10 @@
       <c r="L163">
         <v>-2579.4</v>
       </c>
+      <c r="N163" s="2"/>
       <c r="O163" s="2"/>
-      <c r="P163" s="2"/>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -20459,10 +21474,10 @@
       <c r="L164">
         <v>-2576.1</v>
       </c>
+      <c r="N164" s="2"/>
       <c r="O164" s="2"/>
-      <c r="P164" s="2"/>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -20499,10 +21514,10 @@
       <c r="L165">
         <v>-2572.38</v>
       </c>
+      <c r="N165" s="2"/>
       <c r="O165" s="2"/>
-      <c r="P165" s="2"/>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -20539,10 +21554,10 @@
       <c r="L166">
         <v>-2589.48</v>
       </c>
+      <c r="N166" s="2"/>
       <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -20579,10 +21594,10 @@
       <c r="L167">
         <v>-2612.2800000000002</v>
       </c>
+      <c r="N167" s="2"/>
       <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -20619,10 +21634,10 @@
       <c r="L168">
         <v>-2595.27</v>
       </c>
+      <c r="N168" s="2"/>
       <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -20659,10 +21674,10 @@
       <c r="L169">
         <v>-2601.4299999999998</v>
       </c>
+      <c r="N169" s="2"/>
       <c r="O169" s="2"/>
-      <c r="P169" s="2"/>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -20699,10 +21714,10 @@
       <c r="L170">
         <v>-2629.27</v>
       </c>
+      <c r="N170" s="2"/>
       <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -20739,10 +21754,10 @@
       <c r="L171">
         <v>-2693.8</v>
       </c>
+      <c r="N171" s="2"/>
       <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>17</v>
       </c>
@@ -20779,10 +21794,10 @@
       <c r="L172">
         <v>-2719.76</v>
       </c>
+      <c r="N172" s="2"/>
       <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -20819,10 +21834,10 @@
       <c r="L173">
         <v>-2752.31</v>
       </c>
+      <c r="N173" s="2"/>
       <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -20859,10 +21874,10 @@
       <c r="L174">
         <v>-2773.51</v>
       </c>
+      <c r="N174" s="2"/>
       <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>17</v>
       </c>
@@ -20899,10 +21914,10 @@
       <c r="L175">
         <v>-2784.85</v>
       </c>
+      <c r="N175" s="2"/>
       <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>17</v>
       </c>
@@ -20939,10 +21954,10 @@
       <c r="L176">
         <v>-2814.26</v>
       </c>
+      <c r="N176" s="2"/>
       <c r="O176" s="2"/>
-      <c r="P176" s="2"/>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -20979,10 +21994,10 @@
       <c r="L177">
         <v>-2815.28</v>
       </c>
+      <c r="N177" s="2"/>
       <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>17</v>
       </c>
@@ -21019,10 +22034,10 @@
       <c r="L178">
         <v>-2842.1</v>
       </c>
+      <c r="N178" s="2"/>
       <c r="O178" s="2"/>
-      <c r="P178" s="2"/>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>17</v>
       </c>
@@ -21059,10 +22074,10 @@
       <c r="L179">
         <v>-2842.95</v>
       </c>
+      <c r="N179" s="2"/>
       <c r="O179" s="2"/>
-      <c r="P179" s="2"/>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -21099,10 +22114,10 @@
       <c r="L180">
         <v>-2810.48</v>
       </c>
+      <c r="N180" s="2"/>
       <c r="O180" s="2"/>
-      <c r="P180" s="2"/>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -21139,10 +22154,10 @@
       <c r="L181">
         <v>-2789.6</v>
       </c>
+      <c r="N181" s="2"/>
       <c r="O181" s="2"/>
-      <c r="P181" s="2"/>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -21179,10 +22194,10 @@
       <c r="L182">
         <v>-2843.8</v>
       </c>
+      <c r="N182" s="2"/>
       <c r="O182" s="2"/>
-      <c r="P182" s="2"/>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -21219,10 +22234,10 @@
       <c r="L183">
         <v>-2862.23</v>
       </c>
+      <c r="N183" s="2"/>
       <c r="O183" s="2"/>
-      <c r="P183" s="2"/>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -21259,10 +22274,10 @@
       <c r="L184">
         <v>-2881.49</v>
       </c>
+      <c r="N184" s="2"/>
       <c r="O184" s="2"/>
-      <c r="P184" s="2"/>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -21299,10 +22314,10 @@
       <c r="L185">
         <v>-2758.37</v>
       </c>
+      <c r="N185" s="2"/>
       <c r="O185" s="2"/>
-      <c r="P185" s="2"/>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -21339,10 +22354,10 @@
       <c r="L186">
         <v>-2791.26</v>
       </c>
+      <c r="N186" s="2"/>
       <c r="O186" s="2"/>
-      <c r="P186" s="2"/>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>17</v>
       </c>
@@ -21379,10 +22394,10 @@
       <c r="L187">
         <v>-2722.62</v>
       </c>
+      <c r="N187" s="2"/>
       <c r="O187" s="2"/>
-      <c r="P187" s="2"/>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>17</v>
       </c>
@@ -21419,10 +22434,10 @@
       <c r="L188">
         <v>-2840.07</v>
       </c>
+      <c r="N188" s="2"/>
       <c r="O188" s="2"/>
-      <c r="P188" s="2"/>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -21459,10 +22474,10 @@
       <c r="L189">
         <v>-2879.07</v>
       </c>
+      <c r="N189" s="2"/>
       <c r="O189" s="2"/>
-      <c r="P189" s="2"/>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -21499,10 +22514,10 @@
       <c r="L190">
         <v>-2805.75</v>
       </c>
+      <c r="N190" s="2"/>
       <c r="O190" s="2"/>
-      <c r="P190" s="2"/>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -21539,10 +22554,10 @@
       <c r="L191">
         <v>-2825.73</v>
       </c>
+      <c r="N191" s="2"/>
       <c r="O191" s="2"/>
-      <c r="P191" s="2"/>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -21579,10 +22594,10 @@
       <c r="L192">
         <v>-2784.96</v>
       </c>
+      <c r="N192" s="2"/>
       <c r="O192" s="2"/>
-      <c r="P192" s="2"/>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -21619,10 +22634,10 @@
       <c r="L193">
         <v>-2805.84</v>
       </c>
+      <c r="N193" s="2"/>
       <c r="O193" s="2"/>
-      <c r="P193" s="2"/>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>17</v>
       </c>
@@ -21659,10 +22674,10 @@
       <c r="L194">
         <v>-2844.84</v>
       </c>
+      <c r="N194" s="2"/>
       <c r="O194" s="2"/>
-      <c r="P194" s="2"/>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>17</v>
       </c>
@@ -21699,10 +22714,10 @@
       <c r="L195">
         <v>-2866.12</v>
       </c>
+      <c r="N195" s="2"/>
       <c r="O195" s="2"/>
-      <c r="P195" s="2"/>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>17</v>
       </c>
@@ -21739,10 +22754,10 @@
       <c r="L196">
         <v>-2905.6</v>
       </c>
+      <c r="N196" s="2"/>
       <c r="O196" s="2"/>
-      <c r="P196" s="2"/>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -21779,10 +22794,10 @@
       <c r="L197">
         <v>-2916.94</v>
       </c>
+      <c r="N197" s="2"/>
       <c r="O197" s="2"/>
-      <c r="P197" s="2"/>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>17</v>
       </c>
@@ -21819,10 +22834,10 @@
       <c r="L198">
         <v>-2876.9</v>
       </c>
+      <c r="N198" s="2"/>
       <c r="O198" s="2"/>
-      <c r="P198" s="2"/>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>17</v>
       </c>
@@ -21859,10 +22874,10 @@
       <c r="L199">
         <v>-2855.84</v>
       </c>
+      <c r="N199" s="2"/>
       <c r="O199" s="2"/>
-      <c r="P199" s="2"/>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>17</v>
       </c>
@@ -21899,10 +22914,10 @@
       <c r="L200">
         <v>-2894.12</v>
       </c>
+      <c r="N200" s="2"/>
       <c r="O200" s="2"/>
-      <c r="P200" s="2"/>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>17</v>
       </c>
@@ -21939,10 +22954,10 @@
       <c r="L201">
         <v>-2907.87</v>
       </c>
+      <c r="N201" s="2"/>
       <c r="O201" s="2"/>
-      <c r="P201" s="2"/>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>17</v>
       </c>
@@ -21979,10 +22994,10 @@
       <c r="L202">
         <v>-2922.37</v>
       </c>
+      <c r="N202" s="2"/>
       <c r="O202" s="2"/>
-      <c r="P202" s="2"/>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>17</v>
       </c>
@@ -22019,10 +23034,10 @@
       <c r="L203">
         <v>-2936.12</v>
       </c>
+      <c r="N203" s="2"/>
       <c r="O203" s="2"/>
-      <c r="P203" s="2"/>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>17</v>
       </c>
@@ -22059,10 +23074,10 @@
       <c r="L204">
         <v>-2931.08</v>
       </c>
+      <c r="N204" s="2"/>
       <c r="O204" s="2"/>
-      <c r="P204" s="2"/>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>17</v>
       </c>
@@ -22099,10 +23114,10 @@
       <c r="L205">
         <v>-2953.33</v>
       </c>
+      <c r="N205" s="2"/>
       <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>17</v>
       </c>
@@ -22139,10 +23154,10 @@
       <c r="L206">
         <v>-2983.58</v>
       </c>
+      <c r="N206" s="2"/>
       <c r="O206" s="2"/>
-      <c r="P206" s="2"/>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>17</v>
       </c>
@@ -22179,10 +23194,10 @@
       <c r="L207">
         <v>-2977.42</v>
       </c>
+      <c r="N207" s="2"/>
       <c r="O207" s="2"/>
-      <c r="P207" s="2"/>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -22219,10 +23234,10 @@
       <c r="L208">
         <v>-2982.7</v>
       </c>
+      <c r="N208" s="2"/>
       <c r="O208" s="2"/>
-      <c r="P208" s="2"/>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>17</v>
       </c>
@@ -22259,10 +23274,10 @@
       <c r="L209">
         <v>-2948.82</v>
       </c>
+      <c r="N209" s="2"/>
       <c r="O209" s="2"/>
-      <c r="P209" s="2"/>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>17</v>
       </c>
@@ -22299,10 +23314,10 @@
       <c r="L210">
         <v>-2968.82</v>
       </c>
+      <c r="N210" s="2"/>
       <c r="O210" s="2"/>
-      <c r="P210" s="2"/>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -22339,10 +23354,10 @@
       <c r="L211">
         <v>-2993.57</v>
       </c>
+      <c r="N211" s="2"/>
       <c r="O211" s="2"/>
-      <c r="P211" s="2"/>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>17</v>
       </c>
@@ -22379,10 +23394,10 @@
       <c r="L212">
         <v>-3006.53</v>
       </c>
+      <c r="N212" s="2"/>
       <c r="O212" s="2"/>
-      <c r="P212" s="2"/>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>17</v>
       </c>
@@ -22419,10 +23434,10 @@
       <c r="L213">
         <v>-3025.62</v>
       </c>
+      <c r="N213" s="2"/>
       <c r="O213" s="2"/>
-      <c r="P213" s="2"/>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>17</v>
       </c>
@@ -22459,10 +23474,10 @@
       <c r="L214">
         <v>-3043.22</v>
       </c>
+      <c r="N214" s="2"/>
       <c r="O214" s="2"/>
-      <c r="P214" s="2"/>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>17</v>
       </c>
@@ -22499,10 +23514,10 @@
       <c r="L215">
         <v>-3059.18</v>
       </c>
+      <c r="N215" s="2"/>
       <c r="O215" s="2"/>
-      <c r="P215" s="2"/>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>17</v>
       </c>
@@ -22539,10 +23554,10 @@
       <c r="L216">
         <v>-3109.38</v>
       </c>
+      <c r="N216" s="2"/>
       <c r="O216" s="2"/>
-      <c r="P216" s="2"/>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>17</v>
       </c>
@@ -22579,10 +23594,10 @@
       <c r="L217">
         <v>-3124.86</v>
       </c>
+      <c r="N217" s="2"/>
       <c r="O217" s="2"/>
-      <c r="P217" s="2"/>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>17</v>
       </c>
@@ -22619,10 +23634,10 @@
       <c r="L218">
         <v>-3070.68</v>
       </c>
+      <c r="N218" s="2"/>
       <c r="O218" s="2"/>
-      <c r="P218" s="2"/>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>17</v>
       </c>
@@ -22659,10 +23674,10 @@
       <c r="L219">
         <v>-3080.68</v>
       </c>
+      <c r="N219" s="2"/>
       <c r="O219" s="2"/>
-      <c r="P219" s="2"/>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -22699,10 +23714,10 @@
       <c r="L220">
         <v>-3105.48</v>
       </c>
+      <c r="N220" s="2"/>
       <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -22739,10 +23754,10 @@
       <c r="L221">
         <v>-3123.88</v>
       </c>
+      <c r="N221" s="2"/>
       <c r="O221" s="2"/>
-      <c r="P221" s="2"/>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -22779,10 +23794,10 @@
       <c r="L222">
         <v>-3092.02</v>
       </c>
+      <c r="N222" s="2"/>
       <c r="O222" s="2"/>
-      <c r="P222" s="2"/>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>17</v>
       </c>
@@ -22819,10 +23834,10 @@
       <c r="L223">
         <v>-3071.12</v>
       </c>
+      <c r="N223" s="2"/>
       <c r="O223" s="2"/>
-      <c r="P223" s="2"/>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -22859,10 +23874,10 @@
       <c r="L224">
         <v>-3084.52</v>
       </c>
+      <c r="N224" s="2"/>
       <c r="O224" s="2"/>
-      <c r="P224" s="2"/>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -22899,10 +23914,10 @@
       <c r="L225">
         <v>-3096.87</v>
       </c>
+      <c r="N225" s="2"/>
       <c r="O225" s="2"/>
-      <c r="P225" s="2"/>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -22939,10 +23954,10 @@
       <c r="L226">
         <v>-3091.93</v>
       </c>
+      <c r="N226" s="2"/>
       <c r="O226" s="2"/>
-      <c r="P226" s="2"/>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -22979,10 +23994,10 @@
       <c r="L227">
         <v>-3084.73</v>
       </c>
+      <c r="N227" s="2"/>
       <c r="O227" s="2"/>
-      <c r="P227" s="2"/>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -23019,10 +24034,10 @@
       <c r="L228">
         <v>-3088.51</v>
       </c>
+      <c r="N228" s="2"/>
       <c r="O228" s="2"/>
-      <c r="P228" s="2"/>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>17</v>
       </c>
@@ -23059,10 +24074,10 @@
       <c r="L229">
         <v>-3098.96</v>
       </c>
+      <c r="N229" s="2"/>
       <c r="O229" s="2"/>
-      <c r="P229" s="2"/>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -23099,10 +24114,10 @@
       <c r="L230">
         <v>-3100.29</v>
       </c>
+      <c r="N230" s="2"/>
       <c r="O230" s="2"/>
-      <c r="P230" s="2"/>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>17</v>
       </c>
@@ -23139,10 +24154,10 @@
       <c r="L231">
         <v>-3118.15</v>
       </c>
+      <c r="N231" s="2"/>
       <c r="O231" s="2"/>
-      <c r="P231" s="2"/>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>17</v>
       </c>
@@ -23179,10 +24194,10 @@
       <c r="L232">
         <v>-3115.49</v>
       </c>
+      <c r="N232" s="2"/>
       <c r="O232" s="2"/>
-      <c r="P232" s="2"/>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>17</v>
       </c>
@@ -23219,10 +24234,10 @@
       <c r="L233">
         <v>-3121.76</v>
       </c>
+      <c r="N233" s="2"/>
       <c r="O233" s="2"/>
-      <c r="P233" s="2"/>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -23259,10 +24274,10 @@
       <c r="L234">
         <v>-3133.56</v>
       </c>
+      <c r="N234" s="2"/>
       <c r="O234" s="2"/>
-      <c r="P234" s="2"/>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>17</v>
       </c>
@@ -23299,10 +24314,10 @@
       <c r="L235">
         <v>-3116.65</v>
       </c>
+      <c r="N235" s="2"/>
       <c r="O235" s="2"/>
-      <c r="P235" s="2"/>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -23339,10 +24354,10 @@
       <c r="L236">
         <v>-3141.25</v>
       </c>
+      <c r="N236" s="2"/>
       <c r="O236" s="2"/>
-      <c r="P236" s="2"/>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -23379,10 +24394,10 @@
       <c r="L237">
         <v>-3156.25</v>
       </c>
+      <c r="N237" s="2"/>
       <c r="O237" s="2"/>
-      <c r="P237" s="2"/>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -23419,10 +24434,10 @@
       <c r="L238">
         <v>-3133.07</v>
       </c>
+      <c r="N238" s="2"/>
       <c r="O238" s="2"/>
-      <c r="P238" s="2"/>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -23459,10 +24474,10 @@
       <c r="L239">
         <v>-3143.07</v>
       </c>
+      <c r="N239" s="2"/>
       <c r="O239" s="2"/>
-      <c r="P239" s="2"/>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>17</v>
       </c>
@@ -23499,10 +24514,10 @@
       <c r="L240">
         <v>-3163.07</v>
       </c>
+      <c r="N240" s="2"/>
       <c r="O240" s="2"/>
-      <c r="P240" s="2"/>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -23539,10 +24554,10 @@
       <c r="L241">
         <v>-3171.91</v>
       </c>
+      <c r="N241" s="2"/>
       <c r="O241" s="2"/>
-      <c r="P241" s="2"/>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -23579,10 +24594,10 @@
       <c r="L242">
         <v>-3178.54</v>
       </c>
+      <c r="N242" s="2"/>
       <c r="O242" s="2"/>
-      <c r="P242" s="2"/>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -23619,10 +24634,10 @@
       <c r="L243">
         <v>-3167.02</v>
       </c>
+      <c r="N243" s="2"/>
       <c r="O243" s="2"/>
-      <c r="P243" s="2"/>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -23659,10 +24674,10 @@
       <c r="L244">
         <v>-3130.3</v>
       </c>
+      <c r="N244" s="2"/>
       <c r="O244" s="2"/>
-      <c r="P244" s="2"/>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -23699,10 +24714,10 @@
       <c r="L245">
         <v>-3155.1</v>
       </c>
+      <c r="N245" s="2"/>
       <c r="O245" s="2"/>
-      <c r="P245" s="2"/>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -23739,10 +24754,10 @@
       <c r="L246">
         <v>-3163.58</v>
       </c>
+      <c r="N246" s="2"/>
       <c r="O246" s="2"/>
-      <c r="P246" s="2"/>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -23779,10 +24794,10 @@
       <c r="L247">
         <v>-3118.62</v>
       </c>
+      <c r="N247" s="2"/>
       <c r="O247" s="2"/>
-      <c r="P247" s="2"/>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -23819,10 +24834,10 @@
       <c r="L248">
         <v>-3144.9</v>
       </c>
+      <c r="N248" s="2"/>
       <c r="O248" s="2"/>
-      <c r="P248" s="2"/>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -23859,10 +24874,10 @@
       <c r="L249">
         <v>-3160.2</v>
       </c>
+      <c r="N249" s="2"/>
       <c r="O249" s="2"/>
-      <c r="P249" s="2"/>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -23899,10 +24914,10 @@
       <c r="L250">
         <v>-3137.02</v>
       </c>
+      <c r="N250" s="2"/>
       <c r="O250" s="2"/>
-      <c r="P250" s="2"/>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -23939,10 +24954,10 @@
       <c r="L251">
         <v>-3167.08</v>
       </c>
+      <c r="N251" s="2"/>
       <c r="O251" s="2"/>
-      <c r="P251" s="2"/>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -23979,10 +24994,10 @@
       <c r="L252">
         <v>-3196.34</v>
       </c>
+      <c r="N252" s="2"/>
       <c r="O252" s="2"/>
-      <c r="P252" s="2"/>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -24019,10 +25034,10 @@
       <c r="L253">
         <v>-3134.6</v>
       </c>
+      <c r="N253" s="2"/>
       <c r="O253" s="2"/>
-      <c r="P253" s="2"/>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -24059,8 +25074,8 @@
       <c r="L254">
         <v>-3132.08</v>
       </c>
+      <c r="N254" s="2"/>
       <c r="O254" s="2"/>
-      <c r="P254" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
